--- a/models/table_3.xlsx
+++ b/models/table_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="157">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -109,373 +109,382 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1759            </t>
+    <t xml:space="preserve">1768            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4547          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2293         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2845          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">361.85          </t>
+    <t xml:space="preserve">0.4467          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2930         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2751          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">351.94          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1123***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0073)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0346          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0885)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3966***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1264)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3869**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1665)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3125          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2739)        </t>
+    <t xml:space="preserve">0.1153***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0069)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0403          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0878)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3839***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1336)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3920**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1704)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3113          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2750)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4549          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2291         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2850          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">241.16          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1121***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0350          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0904)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3967***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1271)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3840**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1645)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3114          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2751)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0126          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0241)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0100         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0177)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7084          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6363          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6947          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">525.93          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1080***       </t>
+    <t xml:space="preserve">0.4468          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2909         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2760          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">234.45          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1152***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0411          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0894)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3835***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1344)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3909**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1686)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3098          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2761)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0051          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0284)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0084         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0169)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7034          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6137          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6888          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.70          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1100***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0028)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0266          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0377)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1352**        </t>
+    <t xml:space="preserve">0.0268          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0378)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1314**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0596)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1635**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0757)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0432          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1163)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0123         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0194)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0161         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0117)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1757**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0723)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6625***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0469)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7199          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8218          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7493          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">496.50          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1087***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0029)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0394         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0414)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1003          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0637)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1016          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0656)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0333         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1036)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0034         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0183)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0134         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0154)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0747          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0667)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5901***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0467)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2524***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0580)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1581**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0722)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0458          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1173)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0090         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0189)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0174         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0120)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1690**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0745)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6652***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0477)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7244          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8557          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7539          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">505.49          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1064***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0390         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0414)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1056*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0623)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0981          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0625)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0292         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1039)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0002          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0174)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0148         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0159)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0686          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0681)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5947***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0467)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2466***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0568)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7181          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8039          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7375          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">489.95          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1066***       </t>
+    <t xml:space="preserve">0.7140          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7820          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7337          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">482.30          </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0027)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0175         </t>
+    <t xml:space="preserve">-0.0192         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0386)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1449**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0618)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1233*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0686)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0034         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1137)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0031         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0182)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0195         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0153)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1117          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0713)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6269***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0439)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1472***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0331)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7215          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8389          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7478          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">498.30          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0301         </t>
+    <t xml:space="preserve">0.1415**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0636)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1270*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0718)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0085         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1135)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0064         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0186)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0182         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0151)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1165*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0689)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6205***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0432)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1551***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0334)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7173          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8117          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7438          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">490.26          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1086***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0315         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0399)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1298**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1099*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0659)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0182         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1092)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0012         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0178         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0891          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0695)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6104***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0441)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2006***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0430)        </t>
+    <t xml:space="preserve">0.1253*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0640)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1134          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0690)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0231         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1089)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0046         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0164         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0156)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0942          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0674)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6044***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0436)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2084***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0437)        </t>
   </si>
 </sst>
 </file>
@@ -971,7 +980,7 @@
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
         <v>135</v>
@@ -994,7 +1003,7 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
         <v>135</v>
@@ -1017,7 +1026,7 @@
         <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
         <v>136</v>
@@ -1040,7 +1049,7 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
         <v>137</v>
@@ -1063,7 +1072,7 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>138</v>
@@ -1109,10 +1118,10 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1129,13 +1138,13 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
         <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1152,13 +1161,13 @@
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
         <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1175,13 +1184,13 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1198,13 +1207,13 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
         <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1221,13 +1230,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1244,13 +1253,13 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
         <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1267,13 +1276,13 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
         <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1290,13 +1299,13 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1313,13 +1322,13 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
         <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1336,13 +1345,13 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1359,13 +1368,13 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
         <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1382,13 +1391,13 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
         <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1405,13 +1414,13 @@
         <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
         <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1428,13 +1437,13 @@
         <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1451,13 +1460,13 @@
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
         <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1474,13 +1483,13 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
         <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1497,13 +1506,13 @@
         <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
         <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1520,7 +1529,7 @@
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
         <v>48</v>
@@ -1543,7 +1552,7 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
         <v>48</v>
@@ -1618,7 +1627,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1641,7 +1650,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
